--- a/excel/t2007.xlsx
+++ b/excel/t2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0study-effective\java-excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F57A0D-1699-4AF6-8952-DDB63FFF21E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BE63F-5FB7-4286-B636-09D3D4CB04B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +78,10 @@
   </si>
   <si>
     <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +113,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,10 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -421,7 +436,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,20 +471,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>35494</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>82</v>
@@ -487,7 +502,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -499,7 +514,7 @@
         <v>34916</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>98</v>

--- a/excel/t2007.xlsx
+++ b/excel/t2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0study-effective\java-excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BE63F-5FB7-4286-B636-09D3D4CB04B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E95D440-374D-4CE5-BEAA-4FF5119245F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,8 +160,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,10 +445,13 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -470,14 +482,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>20</v>
       </c>
       <c r="D2" s="2">
